--- a/extractosBancarios/01022023/PATTY/4232-01022023-01022023.xlsx
+++ b/extractosBancarios/01022023/PATTY/4232-01022023-01022023.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,164 +10,177 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{69DCA05B-E011-424E-98AC-A94A4BD60BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
+    <t>Extracto de cuenta</t>
+  </si>
+  <si>
+    <t>Banco Mercantil Santa Cruz</t>
+  </si>
+  <si>
+    <t>Titular</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nro de Cuenta:</t>
+  </si>
+  <si>
+    <t>4010374232</t>
+  </si>
+  <si>
+    <t>Fecha de emisión:</t>
+  </si>
+  <si>
+    <t>02/02/2023</t>
+  </si>
+  <si>
+    <t>Tipo de producto:</t>
+  </si>
+  <si>
+    <t>CTA CORRIENTE PJ 40</t>
+  </si>
+  <si>
+    <t>Saldo:</t>
+  </si>
+  <si>
+    <t>Bs 426,589.54</t>
+  </si>
+  <si>
+    <t>Movimientos</t>
+  </si>
+  <si>
+    <t>01/02/2023 - 01/02/2023</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Cod. Bca.</t>
+  </si>
+  <si>
     <t>Nro.Cheque</t>
   </si>
   <si>
+    <t>Nro/Nom.Plantilla</t>
+  </si>
+  <si>
+    <t>Cod.Dep.Num</t>
+  </si>
+  <si>
+    <t>Doc.Depositante</t>
+  </si>
+  <si>
+    <t>Nombre/Denominación Depositante</t>
+  </si>
+  <si>
     <t>Tipo transact</t>
   </si>
   <si>
     <t>Descripción</t>
   </si>
   <si>
+    <t>Oficina</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Tipo dep</t>
+  </si>
+  <si>
+    <t>Nom.Destinatario</t>
+  </si>
+  <si>
+    <t>Glosa</t>
+  </si>
+  <si>
+    <t>Originador</t>
+  </si>
+  <si>
+    <t>Originador ACH</t>
+  </si>
+  <si>
+    <t>Ciudad Origen</t>
+  </si>
+  <si>
+    <t>Débito</t>
+  </si>
+  <si>
+    <t>Crédito</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>01/02/2023</t>
+  </si>
+  <si>
+    <t>14:33:39</t>
+  </si>
+  <si>
+    <t>13191-69448</t>
+  </si>
+  <si>
+    <t>16484</t>
+  </si>
+  <si>
+    <t>PAGO CHEQUE POR VENTANILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BANCO MERCANTIL SANTA CRUZ S.A.</t>
+  </si>
+  <si>
     <t>INDUSTRIAS VENADO S.A.</t>
   </si>
   <si>
-    <t>Nro de Cuenta:</t>
-  </si>
-  <si>
-    <t>Tipo dep</t>
-  </si>
-  <si>
-    <t>Débito</t>
-  </si>
-  <si>
-    <t>PAGO CHEQUE POR VENTANILLA</t>
-  </si>
-  <si>
     <t>OR</t>
   </si>
   <si>
-    <t>Saldo:</t>
-  </si>
-  <si>
-    <t>Originador ACH</t>
-  </si>
-  <si>
-    <t>Glosa</t>
-  </si>
-  <si>
-    <t>02/02/2023</t>
-  </si>
-  <si>
-    <t>4010374232</t>
-  </si>
-  <si>
-    <t>Titular</t>
-  </si>
-  <si>
-    <t>Nro/Nom.Plantilla</t>
-  </si>
-  <si>
-    <t>CTA CORRIENTE PJ 40</t>
-  </si>
-  <si>
-    <t>Cod.Dep.Num</t>
-  </si>
-  <si>
-    <t>Banco</t>
-  </si>
-  <si>
-    <t>Originador</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>BANCO MERCANTIL SANTA CRUZ S.A.</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Nom.Destinatario</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>13191-69448</t>
-  </si>
-  <si>
-    <t>Bs 426,589.54</t>
-  </si>
-  <si>
-    <t>Saldo</t>
-  </si>
-  <si>
-    <t>Fecha de emisión:</t>
-  </si>
-  <si>
-    <t>14:33:39</t>
-  </si>
-  <si>
-    <t>Nombre/Denominación Depositante</t>
-  </si>
-  <si>
-    <t>Tipo de producto:</t>
-  </si>
-  <si>
-    <t>16484</t>
-  </si>
-  <si>
-    <t>Doc.Depositante</t>
-  </si>
-  <si>
-    <t>01/02/2023</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>01/02/2023 - 01/02/2023</t>
-  </si>
-  <si>
-    <t>Oficina</t>
-  </si>
-  <si>
-    <t>Movimientos</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 764.40</t>
   </si>
   <si>
-    <t>Crédito</t>
-  </si>
-  <si>
-    <t>Cod. Bca.</t>
-  </si>
-  <si>
-    <t>Extracto de cuenta</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 426,589.54</t>
-  </si>
-  <si>
-    <t>Ciudad Origen</t>
-  </si>
-  <si>
-    <t>Banco Mercantil Santa Cruz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -648,21 +661,21 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="9" borderId="7" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="7" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="37" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="37" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -676,93 +689,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="37" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="37" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="37" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="37" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="1"/>
-    <cellStyle name="20% - Accent2" xfId="2"/>
-    <cellStyle name="20% - Accent3" xfId="3"/>
-    <cellStyle name="20% - Accent4" xfId="4"/>
-    <cellStyle name="20% - Accent5" xfId="5"/>
-    <cellStyle name="20% - Accent6" xfId="6"/>
-    <cellStyle name="40% - Accent1" xfId="7"/>
-    <cellStyle name="40% - Accent2" xfId="8"/>
-    <cellStyle name="40% - Accent3" xfId="9"/>
-    <cellStyle name="40% - Accent4" xfId="10"/>
-    <cellStyle name="40% - Accent5" xfId="11"/>
-    <cellStyle name="40% - Accent6" xfId="12"/>
-    <cellStyle name="60% - Accent1" xfId="13"/>
-    <cellStyle name="60% - Accent2" xfId="14"/>
-    <cellStyle name="60% - Accent3" xfId="15"/>
-    <cellStyle name="60% - Accent4" xfId="16"/>
-    <cellStyle name="60% - Accent5" xfId="17"/>
-    <cellStyle name="60% - Accent6" xfId="18"/>
-    <cellStyle name="Accent1" xfId="19"/>
-    <cellStyle name="Accent2" xfId="20"/>
-    <cellStyle name="Accent3" xfId="21"/>
-    <cellStyle name="Accent4" xfId="22"/>
-    <cellStyle name="Accent5" xfId="23"/>
-    <cellStyle name="Accent6" xfId="24"/>
-    <cellStyle name="Bad" xfId="25"/>
-    <cellStyle name="Calculation" xfId="26"/>
-    <cellStyle name="Check Cell" xfId="27"/>
-    <cellStyle name="Explanatory Text" xfId="28"/>
-    <cellStyle name="Good" xfId="29"/>
-    <cellStyle name="Heading 1" xfId="30"/>
-    <cellStyle name="Heading 2" xfId="31"/>
-    <cellStyle name="Heading 3" xfId="32"/>
-    <cellStyle name="Heading 4" xfId="33"/>
-    <cellStyle name="Input" xfId="34"/>
-    <cellStyle name="Linked Cell" xfId="35"/>
+    <cellStyle name="20% - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Check Cell" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Explanatory Text" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Good" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Heading 1" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Heading 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Heading 3" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Heading 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Input" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Linked Cell" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="37"/>
-    <cellStyle name="Note" xfId="38"/>
-    <cellStyle name="Output" xfId="39"/>
-    <cellStyle name="Title" xfId="40"/>
+    <cellStyle name="Normal 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Note" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Output" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Title" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="42"/>
+    <cellStyle name="Warning Text" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -778,7 +791,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1066,21 +1079,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -1103,213 +1116,213 @@
     <col min="19" max="21" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
+    <row r="1" spans="1:21" ht="15" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
+    <row r="2" spans="1:21" ht="15" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="22"/>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="19"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="26"/>
+    <row r="4" spans="1:21">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="16"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="22"/>
+    <row r="5" spans="1:21">
+      <c r="A5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="19"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="15"/>
+    <row r="6" spans="1:21">
+      <c r="A6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="22"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:21">
+      <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="M7" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="M8" s="19" t="s">
+    <row r="8" spans="1:21">
+      <c r="A8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="M8" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1332,185 +1345,180 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:21">
+      <c r="A10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="19"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="22"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="22"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="15"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="9" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="10" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="P13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q13" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="R13" s="9" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="T13" s="11"/>
       <c r="U13" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:U2"/>
-    <mergeCell ref="A4:U4"/>
-    <mergeCell ref="A5:U5"/>
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A3:U3"/>
     <mergeCell ref="A11:U11"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="F8:J8"/>
@@ -1521,6 +1529,11 @@
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A10:U10"/>
+    <mergeCell ref="A1:U2"/>
+    <mergeCell ref="A4:U4"/>
+    <mergeCell ref="A5:U5"/>
+    <mergeCell ref="A6:U6"/>
+    <mergeCell ref="A3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="37" orientation="landscape" r:id="rId1"/>
